--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem2/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem2/67/incorrect_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IMU calibration required Calibrate IMU .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IMU calibration required</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IMU calibration required Calibrate IMU .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>IMU calibration</t>
+          <t>(Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+          <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>Restart aircraft to take off</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -537,26 +537,26 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+          <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>Restart aircraft to take</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -671,165 +671,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>36</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Aircraft power insufficient</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0-2</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>42</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Compass Interference</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>42</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Temp Max Altitude 98ft</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2-5</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>42</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Compass Interference Temp</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0-2</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>42</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Max Altitude 98ft</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3-5</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>45</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Not suitable for shooting a 4K video</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>7-13</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem2/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem2/67/incorrect_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+          <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>IMU calibration required</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+          <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>IMU calibration</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Running Flight Simulator Restart aircraft to take off .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Restart aircraft to take off</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -537,26 +537,26 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Running Flight Simulator Restart aircraft to take off .</t>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Restart aircraft to take</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -671,15 +671,165 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aircraft power insufficient Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Aircraft power insufficient</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>42</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Compass Interference</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Temp Max Altitude 98ft</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2-5</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>42</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Compass Interference Temp</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>42</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Max Altitude 98ft</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3-5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>45</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Not suitable for shooting a 4K video</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7-13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
